--- a/Instacart Basket Analysis/Instacart Basket Analysis/05 Sent to client/4.10 - Final Report, Jason Roche.xlsx
+++ b/Instacart Basket Analysis/Instacart Basket Analysis/05 Sent to client/4.10 - Final Report, Jason Roche.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Downloads\CareerFoundry\Python Fundamentals for Data Analysts\4.10 Coding Etiqutte and Excel Reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5C4C31-9E12-43C8-8E64-CDBA56820ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AF40F0-E9D0-4ED7-8578-D797B3045DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="808" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="808" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Title Page" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
@@ -773,9 +773,6 @@
     <t>Is there a relationship between income level and the age groups of customers?</t>
   </si>
   <si>
-    <t>I would recommend further research on this area. My idea woulbe to look at orders and their times throughout the day, crossed with income level, to see if the higher-income level customers are active during the peak period, or at another time.</t>
-  </si>
-  <si>
     <t>The busiest times of a week are: 
 - The weekend days of Saturday and Sunday between 9 AM to 4 PM
 - The least busy time we see happens Wednesdays from 2 -5 AM</t>
@@ -838,7 +835,10 @@
     <t>More targeted plans for the Northeast should be a priority. From a demographics' perspective, the Northeast has an even distribution of the groups I looked at, so campaigns need to be tailored to certain groups, but varied to build between the different groups (eg, students, adults under 30 and high or low income level households)</t>
   </si>
   <si>
-    <t>Organic items are already quite popular, use this popularity to promote the brand and offerings as fresh, having health beenfits and for recipe ideas. Bananas are a favourite across all categories, as simple as they are, keep them in a highlighted place.</t>
+    <t>I would recommend further research on this area. My idea would be to look at orders and their times throughout the day, crossed with income level, to see if the higher-income level customers are active during the peak period, or at another time.</t>
+  </si>
+  <si>
+    <t>Organic items are already quite popular, use this popularity to promote the brand and offerings as fresh, having health benefits and for recipe ideas. Bananas are a favourite across all categories, as simple as they are, keep them in a highlighted place.</t>
   </si>
 </sst>
 </file>
@@ -1331,13 +1331,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -17585,7 +17585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="115.2">
+    <row r="8" spans="2:9" ht="86.4">
       <c r="B8" s="33" t="s">
         <v>4</v>
       </c>
@@ -17892,7 +17892,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="397.8">
+    <row r="11" spans="2:12" ht="409.6">
       <c r="B11" s="42" t="s">
         <v>50</v>
       </c>
@@ -18284,8 +18284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:Q267"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A218" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B264" sqref="B264:B267"/>
+    <sheetView showGridLines="0" topLeftCell="B236" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B264" sqref="B264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -18310,7 +18310,7 @@
     </row>
     <row r="49" spans="2:2" ht="115.2">
       <c r="B49" s="70" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="2:2" ht="28.8">
@@ -18383,7 +18383,7 @@
     </row>
     <row r="200" spans="2:2" ht="28.8">
       <c r="B200" s="65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="201" spans="2:2" ht="28.8">
@@ -18450,27 +18450,27 @@
     </row>
     <row r="238" spans="2:2" ht="28.8">
       <c r="B238" s="71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="264" spans="2:2" ht="28.8">
       <c r="B264" s="62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="265" spans="2:2" ht="28.8">
       <c r="B265" s="62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="266" spans="2:2" ht="28.8">
       <c r="B266" s="62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="267" spans="2:2" ht="28.8">
       <c r="B267" s="62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -18487,7 +18487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:P23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -18506,10 +18506,10 @@
     </row>
     <row r="12" spans="2:16" ht="28.8">
       <c r="B12" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="69" t="s">
         <v>161</v>
-      </c>
-      <c r="C12" s="69" t="s">
-        <v>162</v>
       </c>
       <c r="D12" s="69" t="s">
         <v>144</v>
@@ -18517,13 +18517,13 @@
     </row>
     <row r="13" spans="2:16" ht="86.4">
       <c r="B13" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="35" t="s">
         <v>156</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="57.6">
@@ -18578,26 +18578,26 @@
         <v>123</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="115.2">
       <c r="B19" s="73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="230.4">
       <c r="B20" s="73" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D20" s="72" t="s">
         <v>172</v>
